--- a/PDC_Sim_Optimized_Python.xlsx
+++ b/PDC_Sim_Optimized_Python.xlsx
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45807</v>
@@ -685,25 +685,25 @@
         <v>22673</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6812</v>
       </c>
       <c r="G2" t="n">
-        <v>431.96</v>
+        <v>22312.86</v>
       </c>
       <c r="H2" t="n">
-        <v>22241.04</v>
+        <v>-6451.860000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>22241.04</v>
+        <v>6451.860000000001</v>
       </c>
       <c r="J2" t="n">
         <v>1133.65</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9809482644555199</v>
+        <v>-0.2845613725576677</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9809482644555199</v>
+        <v>0.2845613725576677</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>437.96</v>
+        <v>22312.86</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -756,25 +756,25 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.566156455407038</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.566156455407038</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.566156455407038</v>
+        <v>0.9447698401958451</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>22670.11</v>
+        <v>15874.88</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.889999999999418</v>
+        <v>13.88000000000102</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45808</v>
@@ -830,25 +830,25 @@
         <v>54018.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1609</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18969.63</v>
       </c>
       <c r="H3" t="n">
-        <v>54018.4</v>
+        <v>33439.77</v>
       </c>
       <c r="I3" t="n">
-        <v>54018.4</v>
+        <v>33439.77</v>
       </c>
       <c r="J3" t="n">
         <v>2700.92</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.6190440664662412</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.6190440664662412</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18969.63</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>1.203379591216073</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>1.203379591216073</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>1.203379591216073</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
       </c>
       <c r="AG3" t="n">
-        <v>322.04</v>
+        <v>52378.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>53696.36</v>
+        <v>30.45000000000437</v>
       </c>
       <c r="AI3" t="n">
         <v>1</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>45807</v>
@@ -975,25 +975,25 @@
         <v>283</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="I4" t="n">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="J4" t="n">
         <v>14.15</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.4593639575971731</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.4593639575971731</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>-0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AH4" t="n">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="AI4" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>45808</v>
@@ -1123,22 +1123,22 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="H5" t="n">
-        <v>3742.4</v>
+        <v>3607.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3742.4</v>
+        <v>3607.4</v>
       </c>
       <c r="J5" t="n">
         <v>187.12</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.9639268918341172</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.9639268918341172</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="O5" t="n">
         <v>0.8</v>
@@ -1191,22 +1191,22 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>2.219568697139779</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>2.219568697139779</v>
       </c>
       <c r="AE5" t="n">
-        <v>4</v>
+        <v>2.219568697139779</v>
       </c>
       <c r="AF5" t="n">
         <v>-0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>3744.76</v>
       </c>
       <c r="AH5" t="n">
-        <v>3742.4</v>
+        <v>2.360000000000127</v>
       </c>
       <c r="AI5" t="n">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>45807</v>
@@ -1265,25 +1265,25 @@
         <v>19735</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1965.2</v>
       </c>
       <c r="H6" t="n">
-        <v>19735</v>
+        <v>17049.8</v>
       </c>
       <c r="I6" t="n">
-        <v>19735</v>
+        <v>17049.8</v>
       </c>
       <c r="J6" t="n">
         <v>986.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.8639371674689638</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8639371674689638</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1965.2</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.930387885747742</v>
+        <v>1.165947575842525</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.930387885747742</v>
+        <v>1.165947575842525</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.930387885747742</v>
+        <v>1.165947575842525</v>
       </c>
       <c r="AF6" t="n">
         <v>-0</v>
       </c>
       <c r="AG6" t="n">
-        <v>19835.2</v>
+        <v>19024</v>
       </c>
       <c r="AH6" t="n">
-        <v>100.1999999999971</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>45808</v>
@@ -1413,22 +1413,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4507.6</v>
       </c>
       <c r="H7" t="n">
-        <v>26088.8</v>
+        <v>21581.2</v>
       </c>
       <c r="I7" t="n">
-        <v>26088.8</v>
+        <v>21581.2</v>
       </c>
       <c r="J7" t="n">
         <v>1304.44</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.8272208763914017</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.8272208763914017</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4507.6</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
@@ -1481,22 +1481,22 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>1.270513453869498</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>1.270513453869498</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>1.270513453869498</v>
       </c>
       <c r="AF7" t="n">
         <v>-0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>26190.8</v>
       </c>
       <c r="AH7" t="n">
-        <v>26088.8</v>
+        <v>102</v>
       </c>
       <c r="AI7" t="n">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>45808</v>
@@ -1555,25 +1555,25 @@
         <v>53981</v>
       </c>
       <c r="F8" t="n">
-        <v>274</v>
+        <v>14119</v>
       </c>
       <c r="G8" t="n">
-        <v>694</v>
+        <v>18060.93</v>
       </c>
       <c r="H8" t="n">
-        <v>53013</v>
+        <v>21801.07</v>
       </c>
       <c r="I8" t="n">
-        <v>53013</v>
+        <v>21801.07</v>
       </c>
       <c r="J8" t="n">
         <v>2699.05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.982067764583835</v>
+        <v>0.4038656193845983</v>
       </c>
       <c r="L8" t="n">
-        <v>0.982067764583835</v>
+        <v>0.4038656193845983</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>694</v>
+        <v>18110.49</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1638,10 +1638,10 @@
         <v>-0</v>
       </c>
       <c r="AG8" t="n">
-        <v>694</v>
+        <v>18060.93</v>
       </c>
       <c r="AH8" t="n">
-        <v>53013</v>
+        <v>21801.07</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>45808</v>
@@ -1700,25 +1700,25 @@
         <v>14577</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>8574.24</v>
       </c>
       <c r="H9" t="n">
-        <v>14577</v>
+        <v>5187.76</v>
       </c>
       <c r="I9" t="n">
-        <v>14577</v>
+        <v>5187.76</v>
       </c>
       <c r="J9" t="n">
         <v>728.85</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.3558866707827399</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.3558866707827399</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>8574.24</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1783,10 +1783,10 @@
         <v>-0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>8574.239999999996</v>
       </c>
       <c r="AH9" t="n">
-        <v>14577</v>
+        <v>5187.760000000004</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>45808</v>
@@ -1848,22 +1848,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2855.99</v>
       </c>
       <c r="H10" t="n">
-        <v>9095</v>
+        <v>6239.01</v>
       </c>
       <c r="I10" t="n">
-        <v>9095</v>
+        <v>6239.01</v>
       </c>
       <c r="J10" t="n">
         <v>454.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.6859824079164376</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.6859824079164376</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2855.99</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -1916,22 +1916,22 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.5</v>
+        <v>1.071654114831019</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.5</v>
+        <v>1.071654114831019</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.5</v>
+        <v>1.071654114831019</v>
       </c>
       <c r="AF10" t="n">
         <v>-0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>9096.240000000002</v>
       </c>
       <c r="AH10" t="n">
-        <v>9095</v>
+        <v>1.240000000001601</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>

--- a/PDC_Sim_Optimized_Python.xlsx
+++ b/PDC_Sim_Optimized_Python.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PDC_Sim" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -63,7 +64,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,96 +579,11 @@
           <t>Boost PDC</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Opt_J</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Opt_K</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Opt_L</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Opt_H_Boost</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>PY_F_Sim</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>PY_I_Sim</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>PY_TypeLissage</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Comment_Optim</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_O_lim</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_P_lim</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_Q_lim</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_S_lim</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_T_lim</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_U_lim</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_J_start</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_K_start</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_L_start</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sec méca - a/b</t>
+          <t>Sec Méca - A/B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,22 +604,22 @@
         <v>6812</v>
       </c>
       <c r="G2" t="n">
-        <v>22312.86</v>
+        <v>33787.73</v>
       </c>
       <c r="H2" t="n">
-        <v>-6451.860000000001</v>
+        <v>-17926.73</v>
       </c>
       <c r="I2" t="n">
-        <v>6451.860000000001</v>
+        <v>17926.73</v>
       </c>
       <c r="J2" t="n">
         <v>1133.65</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2845613725576677</v>
+        <v>-0.7906642261720991</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2845613725576677</v>
+        <v>0.7906642261720991</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -711,7 +627,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>22312.86</v>
+        <v>33787.73</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -723,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.86919454021392</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.9563981800713067</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -735,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
@@ -753,66 +669,13 @@
         <v>4</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.9447698401958451</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15874.88</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13.88000000000102</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sec méca - a/c</t>
+          <t>Sec Méca - A/C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -833,22 +696,22 @@
         <v>1609</v>
       </c>
       <c r="G3" t="n">
-        <v>18969.63</v>
+        <v>32532.8</v>
       </c>
       <c r="H3" t="n">
-        <v>33439.77</v>
+        <v>19876.6</v>
       </c>
       <c r="I3" t="n">
-        <v>33439.77</v>
+        <v>19876.6</v>
       </c>
       <c r="J3" t="n">
         <v>2700.92</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6190440664662412</v>
+        <v>0.3679598062882277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6190440664662412</v>
+        <v>0.3679598062882277</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -856,22 +719,22 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>18969.63</v>
+        <v>32532.8</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>1.0311224616571</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>1.0311224616571</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>1.0311224616571</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>1.0311224616571</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -883,13 +746,13 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -898,66 +761,13 @@
         <v>4</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.203379591216073</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.203379591216073</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.203379591216073</v>
-      </c>
-      <c r="AF3" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>52378.95</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>30.45000000000437</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sec homogène - a/b</t>
+          <t>Sec Homogène - A/B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -978,22 +788,22 @@
         <v>96</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>276.25</v>
       </c>
       <c r="H4" t="n">
-        <v>130</v>
+        <v>-89.25</v>
       </c>
       <c r="I4" t="n">
-        <v>130</v>
+        <v>89.25</v>
       </c>
       <c r="J4" t="n">
         <v>14.15</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4593639575971731</v>
+        <v>-0.3153710247349824</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4593639575971731</v>
+        <v>0.3153710247349824</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1001,7 +811,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>57</v>
+        <v>276.25</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -1025,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -1044,65 +854,12 @@
       </c>
       <c r="AB4" t="n">
         <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>57</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sec homogène - a/c</t>
+          <t>Sec Homogène - A/C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1123,22 +880,22 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>135</v>
+        <v>416.92</v>
       </c>
       <c r="H5" t="n">
-        <v>3607.4</v>
+        <v>3325.48</v>
       </c>
       <c r="I5" t="n">
-        <v>3607.4</v>
+        <v>3325.48</v>
       </c>
       <c r="J5" t="n">
         <v>187.12</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9639268918341172</v>
+        <v>0.8885955536554083</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9639268918341172</v>
+        <v>0.8885955536554083</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1146,22 +903,22 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>135</v>
+        <v>416.92</v>
       </c>
       <c r="O5" t="n">
         <v>0.8</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2.251066014107722</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2.251066014107722</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>2.251066014107722</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2.251066014107722</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -1173,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1188,66 +945,13 @@
         <v>4</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2.219568697139779</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.219568697139779</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.219568697139779</v>
-      </c>
-      <c r="AF5" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>3744.76</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2.360000000000127</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sec hétérogène - a/b</t>
+          <t>Sec Hétérogène - A/B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1268,22 +972,22 @@
         <v>720</v>
       </c>
       <c r="G6" t="n">
-        <v>1965.2</v>
+        <v>16870.2</v>
       </c>
       <c r="H6" t="n">
-        <v>17049.8</v>
+        <v>2144.799999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>17049.8</v>
+        <v>2144.799999999999</v>
       </c>
       <c r="J6" t="n">
         <v>986.75</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8639371674689638</v>
+        <v>0.1086800101342792</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8639371674689638</v>
+        <v>0.1086800101342792</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1291,22 +995,22 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1965.2</v>
+        <v>16870.2</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>1.0311224616571</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>1.0311224616571</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>1.0311224616571</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>1.0311224616571</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -1318,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1333,66 +1037,13 @@
         <v>4</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.165947575842525</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1.165947575842525</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.165947575842525</v>
-      </c>
-      <c r="AF6" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>19024</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sec hétérogène - a/c</t>
+          <t>Sec Hétérogène - A/C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1413,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4507.6</v>
+        <v>11197.2</v>
       </c>
       <c r="H7" t="n">
-        <v>21581.2</v>
+        <v>14891.6</v>
       </c>
       <c r="I7" t="n">
-        <v>21581.2</v>
+        <v>14891.6</v>
       </c>
       <c r="J7" t="n">
         <v>1304.44</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8272208763914017</v>
+        <v>0.5708043298273588</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8272208763914017</v>
+        <v>0.5708043298273588</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1436,22 +1087,22 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4507.6</v>
+        <v>11197.2</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>1.228924868121871</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>1.228924868121871</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>1.228924868121871</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>1.228924868121871</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -1463,13 +1114,13 @@
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1478,66 +1129,13 @@
         <v>4</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.270513453869498</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1.270513453869498</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.270513453869498</v>
-      </c>
-      <c r="AF7" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>26190.8</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>102</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frais méca</t>
+          <t>Frais Méca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1558,22 +1156,22 @@
         <v>14119</v>
       </c>
       <c r="G8" t="n">
-        <v>18060.93</v>
+        <v>21068.45</v>
       </c>
       <c r="H8" t="n">
-        <v>21801.07</v>
+        <v>18793.55</v>
       </c>
       <c r="I8" t="n">
-        <v>21801.07</v>
+        <v>18793.55</v>
       </c>
       <c r="J8" t="n">
         <v>2699.05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4038656193845983</v>
+        <v>0.3481512013486227</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4038656193845983</v>
+        <v>0.3481512013486227</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1581,7 +1179,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>18110.49</v>
+        <v>21068.45</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1623,66 +1221,13 @@
         <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>18060.93</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21801.07</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frais manuel</t>
+          <t>Frais Manuel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1703,22 +1248,22 @@
         <v>815</v>
       </c>
       <c r="G9" t="n">
-        <v>8574.24</v>
+        <v>13175.24</v>
       </c>
       <c r="H9" t="n">
-        <v>5187.76</v>
+        <v>586.7600000000002</v>
       </c>
       <c r="I9" t="n">
-        <v>5187.76</v>
+        <v>586.7600000000002</v>
       </c>
       <c r="J9" t="n">
         <v>728.85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3558866707827399</v>
+        <v>0.0402524524936544</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3558866707827399</v>
+        <v>0.0402524524936544</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1726,7 +1271,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>8574.24</v>
+        <v>13175.24</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1768,66 +1313,13 @@
         <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>8574.239999999996</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5187.760000000004</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>surgelés</t>
+          <t>Surgelés</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1848,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2855.99</v>
+        <v>7529.92</v>
       </c>
       <c r="H10" t="n">
-        <v>6239.01</v>
+        <v>1565.08</v>
       </c>
       <c r="I10" t="n">
-        <v>6239.01</v>
+        <v>1565.08</v>
       </c>
       <c r="J10" t="n">
         <v>454.75</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6859824079164376</v>
+        <v>0.1720813633864761</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6859824079164376</v>
+        <v>0.1720813633864761</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1871,22 +1363,22 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2855.99</v>
+        <v>7529.92</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>1.01556123082855</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>1.01556123082855</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>1.01556123082855</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>1.01556123082855</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1898,13 +1390,13 @@
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1913,60 +1405,7 @@
         <v>2.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.071654114831019</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1.071654114831019</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.071654114831019</v>
-      </c>
-      <c r="AF10" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9096.240000000002</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.240000000001601</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PDC_Sim_Optimized_Python.xlsx
+++ b/PDC_Sim_Optimized_Python.xlsx
@@ -639,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.86919454021392</v>
+        <v>0.858151372357018</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9563981800713067</v>
+        <v>0.952717124119006</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -725,16 +725,16 @@
         <v>0.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.0311224616571</v>
+        <v>1.073332822577892</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.0311224616571</v>
+        <v>1.073332822577892</v>
       </c>
       <c r="R3" t="n">
-        <v>1.0311224616571</v>
+        <v>1.073332822577892</v>
       </c>
       <c r="S3" t="n">
-        <v>1.0311224616571</v>
+        <v>1.073332822577892</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.8</v>
       </c>
       <c r="P5" t="n">
-        <v>2.251066014107722</v>
+        <v>2.054833819407756</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.251066014107722</v>
+        <v>2.054833819407756</v>
       </c>
       <c r="R5" t="n">
-        <v>2.251066014107722</v>
+        <v>2.054833819407756</v>
       </c>
       <c r="S5" t="n">
-        <v>2.251066014107722</v>
+        <v>2.054833819407756</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -1001,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.0311224616571</v>
+        <v>1.046257364924848</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.0311224616571</v>
+        <v>1.046257364924848</v>
       </c>
       <c r="R6" t="n">
-        <v>1.0311224616571</v>
+        <v>1.046257364924848</v>
       </c>
       <c r="S6" t="n">
-        <v>1.0311224616571</v>
+        <v>1.046257364924848</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -1093,16 +1093,16 @@
         <v>0.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.228924868121871</v>
+        <v>1.219924349084978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.228924868121871</v>
+        <v>1.219924349084978</v>
       </c>
       <c r="R7" t="n">
-        <v>1.228924868121871</v>
+        <v>1.219924349084978</v>
       </c>
       <c r="S7" t="n">
-        <v>1.228924868121871</v>
+        <v>1.219924349084978</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -1369,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.01556123082855</v>
+        <v>1.047508524039818</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01556123082855</v>
+        <v>1.047508524039818</v>
       </c>
       <c r="R10" t="n">
-        <v>1.01556123082855</v>
+        <v>1.047508524039818</v>
       </c>
       <c r="S10" t="n">
-        <v>1.01556123082855</v>
+        <v>1.047508524039818</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>

--- a/PDC_Sim_Optimized_Python.xlsx
+++ b/PDC_Sim_Optimized_Python.xlsx
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>33787.73</v>
+        <v>33742</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.858151372357018</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.952717124119006</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -696,22 +696,22 @@
         <v>1609</v>
       </c>
       <c r="G3" t="n">
-        <v>32532.8</v>
+        <v>32949.8</v>
       </c>
       <c r="H3" t="n">
-        <v>19876.6</v>
+        <v>19459.6</v>
       </c>
       <c r="I3" t="n">
-        <v>19876.6</v>
+        <v>19459.6</v>
       </c>
       <c r="J3" t="n">
         <v>2700.92</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3679598062882277</v>
+        <v>0.3602402144454482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3679598062882277</v>
+        <v>0.3602402144454482</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>32532.8</v>
+        <v>32921</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.073332822577892</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.073332822577892</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.073332822577892</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.073332822577892</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>276.25</v>
+        <v>276</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>416.92</v>
+        <v>416</v>
       </c>
       <c r="O5" t="n">
         <v>0.8</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>16870.2</v>
+        <v>16870</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>11197.2</v>
+        <v>11196</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.219924349084978</v>
+        <v>1.219908824147128</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.219924349084978</v>
+        <v>1.219908824147128</v>
       </c>
       <c r="R7" t="n">
-        <v>1.219924349084978</v>
+        <v>1.219908824147128</v>
       </c>
       <c r="S7" t="n">
-        <v>1.219924349084978</v>
+        <v>1.219908824147128</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -1156,22 +1156,22 @@
         <v>14119</v>
       </c>
       <c r="G8" t="n">
-        <v>21068.45</v>
+        <v>29560.61</v>
       </c>
       <c r="H8" t="n">
-        <v>18793.55</v>
+        <v>10301.39</v>
       </c>
       <c r="I8" t="n">
-        <v>18793.55</v>
+        <v>10301.39</v>
       </c>
       <c r="J8" t="n">
         <v>2699.05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3481512013486227</v>
+        <v>0.1908336266464126</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3481512013486227</v>
+        <v>0.1908336266464126</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>21068.45</v>
+        <v>29528</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1248,22 +1248,22 @@
         <v>815</v>
       </c>
       <c r="G9" t="n">
-        <v>13175.24</v>
+        <v>14483.88</v>
       </c>
       <c r="H9" t="n">
-        <v>586.7600000000002</v>
+        <v>-721.8799999999992</v>
       </c>
       <c r="I9" t="n">
-        <v>586.7600000000002</v>
+        <v>721.8799999999992</v>
       </c>
       <c r="J9" t="n">
         <v>728.85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0402524524936544</v>
+        <v>-0.04952184948892085</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0402524524936544</v>
+        <v>0.04952184948892085</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>13175.24</v>
+        <v>14465</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1283,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.975889371654071</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0.9919631238846903</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1363,22 +1363,22 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7529.92</v>
+        <v>7518</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.047508524039818</v>
+        <v>1.047542720097813</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.047508524039818</v>
+        <v>1.047542720097813</v>
       </c>
       <c r="R10" t="n">
-        <v>1.047508524039818</v>
+        <v>1.047542720097813</v>
       </c>
       <c r="S10" t="n">
-        <v>1.047508524039818</v>
+        <v>1.047542720097813</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>

--- a/PDC_Sim_Optimized_Python.xlsx
+++ b/PDC_Sim_Optimized_Python.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PDC_Sim" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,10 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,7 +63,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,11 +578,96 @@
           <t>Boost PDC</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>PY_Opt_J</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>PY_Opt_K</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>PY_Opt_L</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>PY_Opt_H_Boost</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>PY_F_Sim</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>PY_I_Sim</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>PY_TypeLissage</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>PY_Comment_Optim</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_O_lim</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_P_lim</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_Q_lim</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_S_lim</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_T_lim</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_U_lim</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_J_start</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_K_start</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>LHB_L_start</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sec Méca - A/B</t>
+          <t>sec méca - a/b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -592,34 +676,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="E2" t="n">
-        <v>22673</v>
+        <v>113847</v>
       </c>
       <c r="F2" t="n">
-        <v>6812</v>
+        <v>32851</v>
       </c>
       <c r="G2" t="n">
-        <v>33787.73</v>
+        <v>34669.94</v>
       </c>
       <c r="H2" t="n">
-        <v>-17926.73</v>
+        <v>46326.06</v>
       </c>
       <c r="I2" t="n">
-        <v>17926.73</v>
+        <v>46326.06</v>
       </c>
       <c r="J2" t="n">
-        <v>1133.65</v>
+        <v>5692.35</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7906642261720991</v>
+        <v>0.4069150702258294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7906642261720991</v>
+        <v>0.4069150702258294</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -627,7 +711,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>33742</v>
+        <v>34634</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -651,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
@@ -670,12 +754,65 @@
       </c>
       <c r="AB2" t="n">
         <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>82410</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sec Méca - A/C</t>
+          <t>sec méca - a/c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -684,34 +821,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E3" t="n">
-        <v>54018.4</v>
+        <v>37152.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1609</v>
+        <v>506</v>
       </c>
       <c r="G3" t="n">
-        <v>32949.8</v>
+        <v>22396.14</v>
       </c>
       <c r="H3" t="n">
-        <v>19459.6</v>
+        <v>14250.66</v>
       </c>
       <c r="I3" t="n">
-        <v>19459.6</v>
+        <v>14250.66</v>
       </c>
       <c r="J3" t="n">
-        <v>2700.92</v>
+        <v>1857.64</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3602402144454482</v>
+        <v>0.3835689369307294</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3602402144454482</v>
+        <v>0.3835689369307294</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -719,7 +856,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>32921</v>
+        <v>22371</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
@@ -746,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -761,13 +898,66 @@
         <v>4</v>
       </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.146940843359814</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.146940843359814</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.146940843359814</v>
+      </c>
+      <c r="AF3" t="n">
         <v>-0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>37861</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sec Homogène - A/B</t>
+          <t>sec homogène - a/b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -776,34 +966,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="E4" t="n">
-        <v>283</v>
+        <v>1331</v>
       </c>
       <c r="F4" t="n">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="G4" t="n">
-        <v>276.25</v>
+        <v>280</v>
       </c>
       <c r="H4" t="n">
-        <v>-89.25</v>
+        <v>914</v>
       </c>
       <c r="I4" t="n">
-        <v>89.25</v>
+        <v>914</v>
       </c>
       <c r="J4" t="n">
-        <v>14.15</v>
+        <v>66.55</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3153710247349824</v>
+        <v>0.6867017280240421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3153710247349824</v>
+        <v>0.6867017280240421</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -811,7 +1001,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -835,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -854,12 +1044,65 @@
       </c>
       <c r="AB4" t="n">
         <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>530</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sec Homogène - A/C</t>
+          <t>sec homogène - a/c</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -868,34 +1111,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E5" t="n">
-        <v>3742.4</v>
+        <v>645.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>416.92</v>
+        <v>239.11</v>
       </c>
       <c r="H5" t="n">
-        <v>3325.48</v>
+        <v>406.49</v>
       </c>
       <c r="I5" t="n">
-        <v>3325.48</v>
+        <v>406.49</v>
       </c>
       <c r="J5" t="n">
-        <v>187.12</v>
+        <v>32.28</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8885955536554083</v>
+        <v>0.6296313506815365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8885955536554083</v>
+        <v>0.6296313506815365</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -903,22 +1146,22 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="O5" t="n">
         <v>0.8</v>
       </c>
       <c r="P5" t="n">
-        <v>2.054833819407756</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.054833819407756</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>2.054833819407756</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.054833819407756</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -930,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -945,13 +1188,66 @@
         <v>4</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" t="n">
         <v>-0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6986</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7330</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sec Hétérogène - A/B</t>
+          <t>sec hétérogène - a/b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -960,34 +1256,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="E6" t="n">
-        <v>19735</v>
+        <v>17429</v>
       </c>
       <c r="F6" t="n">
-        <v>720</v>
+        <v>10128</v>
       </c>
       <c r="G6" t="n">
-        <v>16870.2</v>
+        <v>6674.96</v>
       </c>
       <c r="H6" t="n">
-        <v>2144.799999999999</v>
+        <v>626.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2144.799999999999</v>
+        <v>626.04</v>
       </c>
       <c r="J6" t="n">
-        <v>986.75</v>
+        <v>871.45</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1086800101342792</v>
+        <v>0.03591944460382122</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1086800101342792</v>
+        <v>0.03591944460382122</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -995,22 +1291,22 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>16870</v>
+        <v>6674</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.046257364924848</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.046257364924848</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.046257364924848</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.046257364924848</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -1022,13 +1318,13 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1037,13 +1333,66 @@
         <v>4</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="n">
         <v>-0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6747</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sec Hétérogène - A/C</t>
+          <t>sec hétérogène - a/c</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1052,34 +1401,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E7" t="n">
-        <v>26088.8</v>
+        <v>18318.4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11197.2</v>
+        <v>16106.2</v>
       </c>
       <c r="H7" t="n">
-        <v>14891.6</v>
+        <v>2212.200000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>14891.6</v>
+        <v>2212.200000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>1304.44</v>
+        <v>915.9200000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5708043298273588</v>
+        <v>0.120763822167875</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5708043298273588</v>
+        <v>0.120763822167875</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1087,22 +1436,22 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>11196</v>
+        <v>16105</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.219908824147128</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.219908824147128</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.219908824147128</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.219908824147128</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -1114,13 +1463,13 @@
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1129,49 +1478,102 @@
         <v>4</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.040873650901123</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.040873650901123</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.040873650901123</v>
+      </c>
+      <c r="AF7" t="n">
         <v>-0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>18436</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>316.7999999999993</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>frais méca</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Frais Méca</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Frais Méca</t>
-        </is>
-      </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E8" t="n">
-        <v>53981</v>
+        <v>38704</v>
       </c>
       <c r="F8" t="n">
-        <v>14119</v>
+        <v>10288</v>
       </c>
       <c r="G8" t="n">
-        <v>29560.61</v>
+        <v>28941.52</v>
       </c>
       <c r="H8" t="n">
-        <v>10301.39</v>
+        <v>-525.5200000000004</v>
       </c>
       <c r="I8" t="n">
-        <v>10301.39</v>
+        <v>525.5200000000004</v>
       </c>
       <c r="J8" t="n">
-        <v>2699.05</v>
+        <v>1935.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1908336266464126</v>
+        <v>-0.01357792476229848</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1908336266464126</v>
+        <v>0.01357792476229848</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1179,7 +1581,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>29528</v>
+        <v>28924</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1221,49 +1623,102 @@
         <v>1</v>
       </c>
       <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
         <v>-0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>28924</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>295</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>frais manuel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Frais Manuel</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Frais Manuel</t>
-        </is>
-      </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E9" t="n">
-        <v>14577</v>
+        <v>10236</v>
       </c>
       <c r="F9" t="n">
-        <v>815</v>
+        <v>1319</v>
       </c>
       <c r="G9" t="n">
-        <v>14483.88</v>
+        <v>15162.96</v>
       </c>
       <c r="H9" t="n">
-        <v>-721.8799999999992</v>
+        <v>-6245.960000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>721.8799999999992</v>
+        <v>6245.960000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>728.85</v>
+        <v>511.8</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.04952184948892085</v>
+        <v>-0.6101953888237593</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04952184948892085</v>
+        <v>0.6101953888237593</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1271,7 +1726,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>14465</v>
+        <v>15152</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1283,10 +1738,10 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.975889371654071</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9919631238846903</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1295,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1313,49 +1768,102 @@
         <v>1</v>
       </c>
       <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.2931808646116389</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.2848633156107249</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.2114384714018246</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9139</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>210</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>surgelés</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Surgelés</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Surgelés</t>
-        </is>
-      </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E10" t="n">
-        <v>9095</v>
+        <v>8018</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7529.92</v>
+        <v>12881.74</v>
       </c>
       <c r="H10" t="n">
-        <v>1565.08</v>
+        <v>-4863.74</v>
       </c>
       <c r="I10" t="n">
-        <v>1565.08</v>
+        <v>4863.74</v>
       </c>
       <c r="J10" t="n">
-        <v>454.75</v>
+        <v>400.9</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1720813633864761</v>
+        <v>-0.6066026440508855</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1720813633864761</v>
+        <v>0.6066026440508855</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1363,22 +1871,22 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7518</v>
+        <v>12868</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.047542720097813</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.047542720097813</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.047542720097813</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.047542720097813</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1390,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1405,7 +1913,60 @@
         <v>2.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.9640504537775034</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.429842759663455</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8105</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>Optimisé</t>
+        </is>
+      </c>
+      <c r="AK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PDC_Sim_Optimized_Python.xlsx
+++ b/PDC_Sim_Optimized_Python.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PDC_Sim" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -63,7 +64,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,96 +579,11 @@
           <t>Boost PDC</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Opt_J</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Opt_K</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Opt_L</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Opt_H_Boost</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>PY_F_Sim</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>PY_I_Sim</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>PY_TypeLissage</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>PY_Comment_Optim</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_O_lim</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_P_lim</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_Q_lim</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_S_lim</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_T_lim</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_U_lim</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_J_start</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_K_start</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>LHB_L_start</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sec méca - a/b</t>
+          <t>Sec Méca - A/B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,22 +604,22 @@
         <v>32851</v>
       </c>
       <c r="G2" t="n">
-        <v>34669.94</v>
+        <v>35148.88</v>
       </c>
       <c r="H2" t="n">
-        <v>46326.06</v>
+        <v>45847.12</v>
       </c>
       <c r="I2" t="n">
-        <v>46326.06</v>
+        <v>45847.12</v>
       </c>
       <c r="J2" t="n">
         <v>5692.35</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4069150702258294</v>
+        <v>0.4027081960877318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4069150702258294</v>
+        <v>0.4027081960877318</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -711,22 +627,22 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>34634</v>
+        <v>35111</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>1.219976654456947</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>1.219976654456947</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>1.219976654456947</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>1.219976654456947</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -738,13 +654,13 @@
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -753,66 +669,13 @@
         <v>4</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF2" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>82410</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sec méca - a/c</t>
+          <t>Sec Méca - A/C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -833,22 +696,22 @@
         <v>506</v>
       </c>
       <c r="G3" t="n">
-        <v>22396.14</v>
+        <v>22849.94</v>
       </c>
       <c r="H3" t="n">
-        <v>14250.66</v>
+        <v>13796.86</v>
       </c>
       <c r="I3" t="n">
-        <v>14250.66</v>
+        <v>13796.86</v>
       </c>
       <c r="J3" t="n">
         <v>1857.64</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3835689369307294</v>
+        <v>0.3713545143300102</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3835689369307294</v>
+        <v>0.3713545143300102</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -856,22 +719,22 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>22371</v>
+        <v>22824</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>1.057095499680623</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>1.057095499680623</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>1.057095499680623</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>1.057095499680623</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -883,13 +746,13 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -898,66 +761,13 @@
         <v>4</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.146940843359814</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.146940843359814</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.146940843359814</v>
-      </c>
-      <c r="AF3" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>37861</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sec homogène - a/b</t>
+          <t>Sec Homogène - A/B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1007,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2.494656705762994</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>2.494656705762994</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>2.494656705762994</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2.494656705762994</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -1028,13 +838,13 @@
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1043,66 +853,13 @@
         <v>4</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF4" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>530</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sec homogène - a/c</t>
+          <t>Sec Homogène - A/C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1173,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1188,66 +945,13 @@
         <v>4</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF5" t="n">
         <v>-0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6986</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7330</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sec hétérogène - a/b</t>
+          <t>Sec Hétérogène - A/B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1268,22 +972,22 @@
         <v>10128</v>
       </c>
       <c r="G6" t="n">
-        <v>6674.96</v>
+        <v>7544.96</v>
       </c>
       <c r="H6" t="n">
-        <v>626.04</v>
+        <v>-243.96</v>
       </c>
       <c r="I6" t="n">
-        <v>626.04</v>
+        <v>243.96</v>
       </c>
       <c r="J6" t="n">
         <v>871.45</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03591944460382122</v>
+        <v>-0.01399736072063802</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03591944460382122</v>
+        <v>0.01399736072063802</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1291,7 +995,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6674</v>
+        <v>7544</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1312,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
@@ -1324,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1334,65 +1038,12 @@
       </c>
       <c r="AB6" t="n">
         <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6747</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sec hétérogène - a/c</t>
+          <t>Sec Hétérogène - A/C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1413,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>16106.2</v>
+        <v>16946.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2212.200000000001</v>
+        <v>1372.200000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>2212.200000000001</v>
+        <v>1372.200000000001</v>
       </c>
       <c r="J7" t="n">
         <v>915.9200000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.120763822167875</v>
+        <v>0.07490828893353135</v>
       </c>
       <c r="L7" t="n">
-        <v>0.120763822167875</v>
+        <v>0.07490828893353135</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1436,40 +1087,40 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>16105</v>
+        <v>16945</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.9806426745433676</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0.3268808915144559</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1479,65 +1130,12 @@
       </c>
       <c r="AB7" t="n">
         <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.040873650901123</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1.040873650901123</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.040873650901123</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>18436</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>316.7999999999993</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frais méca</t>
+          <t>Frais Méca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1558,22 +1156,22 @@
         <v>10288</v>
       </c>
       <c r="G8" t="n">
-        <v>28941.52</v>
+        <v>28853.52</v>
       </c>
       <c r="H8" t="n">
-        <v>-525.5200000000004</v>
+        <v>-437.5200000000004</v>
       </c>
       <c r="I8" t="n">
-        <v>525.5200000000004</v>
+        <v>437.5200000000004</v>
       </c>
       <c r="J8" t="n">
         <v>1935.2</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01357792476229848</v>
+        <v>-0.01130425795783383</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01357792476229848</v>
+        <v>0.01130425795783383</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1581,7 +1179,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>28924</v>
+        <v>28836</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1593,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.9570331356189397</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.9856777118729799</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1605,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
@@ -1624,65 +1222,12 @@
       </c>
       <c r="AB8" t="n">
         <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>28924</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>295</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frais manuel</t>
+          <t>Frais Manuel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1703,22 +1248,22 @@
         <v>1319</v>
       </c>
       <c r="G9" t="n">
-        <v>15162.96</v>
+        <v>15120.96</v>
       </c>
       <c r="H9" t="n">
-        <v>-6245.960000000001</v>
+        <v>-6203.960000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>6245.960000000001</v>
+        <v>6203.960000000001</v>
       </c>
       <c r="J9" t="n">
         <v>511.8</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6101953888237593</v>
+        <v>-0.6060922235248145</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6101953888237593</v>
+        <v>0.6060922235248145</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1726,40 +1271,40 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>15152</v>
+        <v>15110</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.002505347585065099</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0.0008351158616883662</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1768,66 +1313,13 @@
         <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.2931808646116389</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.2848633156107249</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.2114384714018246</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9139</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>210</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>surgelés</t>
+          <t>Surgelés</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1848,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12881.74</v>
+        <v>12958.74</v>
       </c>
       <c r="H10" t="n">
-        <v>-4863.74</v>
+        <v>-4940.74</v>
       </c>
       <c r="I10" t="n">
-        <v>4863.74</v>
+        <v>4940.74</v>
       </c>
       <c r="J10" t="n">
         <v>400.9</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6066026440508855</v>
+        <v>-0.6162060364180594</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6066026440508855</v>
+        <v>0.6162060364180594</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1871,7 +1363,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>12868</v>
+        <v>12945</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -1880,22 +1372,22 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0.9542497307492607</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0.6514165769164202</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
@@ -1904,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1913,59 +1405,6 @@
         <v>2.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.9640504537775034</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.429842759663455</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>8105</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>Optimisé</t>
-        </is>
-      </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
         <v>0</v>
       </c>
     </row>
